--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="7740"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -283,12 +283,42 @@
   </si>
   <si>
     <t xml:space="preserve">một fitness function </t>
+  </si>
+  <si>
+    <t>Before performing this algorithm, graph is initialized as a global variable and contains only one vertex representing for the given program P.</t>
+  </si>
+  <si>
+    <t>I also added this explanation into our paper.</t>
+  </si>
+  <si>
+    <t>(calDay, cal, remainder, bessj) thì phương pháp của chúng tôi cũng cho các kết quả tốt như là của Mao [9](Success rate = 100% and Average coverage = 100%).</t>
+  </si>
+  <si>
+    <t>I added experimental analysis for reminder 4 PUT into my papers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vì đề xuất của của chúng tôi là xây dựng các hàm fitness ứng với một rẽ nhánh cần tạo test data để phủ, cho nên là với 4 PUT còn lại </t>
+  </si>
+  <si>
+    <t>Vì đề xuất của của chúng tôi là xây dựng các hàm fitness ứng với mỗi rẽ nhánh của PUT, và sử dụng fitness function này</t>
+  </si>
+  <si>
+    <t>cho vào PSO để sinh ra test data, cho nên luôn sinh được test data để có thể phủ được tất cả các nhánh của PUT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên đề xuất này cũng có một số hạn chế mà tôi đã viết thêm vào phần Conclusion. </t>
+  </si>
+  <si>
+    <t>Tôi đã sửa lại phần furture work của Conclusion section.</t>
+  </si>
+  <si>
+    <t>Tôi đã check và sửa lại toàn bộ TA of our paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -359,13 +389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -471,7 +501,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -506,7 +535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V161" sqref="V161"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,52 +781,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="P27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -807,57 +838,63 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="P39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="P40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="E41" s="3" t="s">
         <v>45</v>
       </c>
@@ -868,12 +905,15 @@
       <c r="J41" s="3"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="P43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
@@ -884,69 +924,83 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="P44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="P45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:18">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:18">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="R63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="R64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="B65" s="3" t="s">
         <v>46</v>
       </c>
@@ -957,13 +1011,19 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="R65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="R67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
         <v>48</v>
@@ -975,271 +1035,285 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
+      <c r="R68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="R69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="3" t="s">
+      <c r="R71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="B72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" s="3" t="s">
+      <c r="R74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" t="s">
+    <row r="78" spans="1:18">
+      <c r="A78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="B82" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="B83" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="B90" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="B91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="C93" t="s">
+    <row r="94" spans="1:4">
+      <c r="C94" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="D94" t="s">
+    <row r="95" spans="1:4">
+      <c r="D95" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="B95" t="s">
+    <row r="96" spans="1:4">
+      <c r="B96" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" t="s">
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="C98" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="C99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
-      <c r="D100" t="s">
+    <row r="101" spans="2:4">
+      <c r="D101" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
-      <c r="C101" t="s">
+    <row r="102" spans="2:4">
+      <c r="C102" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4">
-      <c r="C110" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="C111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
-      <c r="D112" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="D113" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="D114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="D115" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
-      <c r="D116" t="s">
+    <row r="117" spans="2:5">
+      <c r="D117" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="2:5">
-      <c r="E117" t="s">
+    <row r="118" spans="2:5">
+      <c r="E118" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
-      <c r="D119" t="s">
+    <row r="120" spans="2:5">
+      <c r="D120" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="C120" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="C121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="C122" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="C128" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="C129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="C130" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1251,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1263,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>Tôi đã check và sửa lại toàn bộ TA of our paper</t>
+  </si>
+  <si>
+    <t>In the future work, we will continue to extend our proposal to be applicable to many kinds of UTs, such as PUTs which contain calls to</t>
+  </si>
+  <si>
+    <t>for programs in industry.</t>
+  </si>
+  <si>
+    <t>native functions or PUTs that handle with string operation or complex data structure. In addition, further research is needed to be able to apply this proposal</t>
   </si>
 </sst>
 </file>
@@ -337,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,12 +378,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="H61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:23">
       <c r="B65" s="3" t="s">
         <v>46</v>
       </c>
@@ -1015,7 +1031,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:23">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:23">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
         <v>48</v>
@@ -1039,12 +1055,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:23">
       <c r="R69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:23">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -1052,34 +1068,50 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:23">
       <c r="B72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="R74" t="s">
+      <c r="R74" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="B75" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="76" spans="1:23">
+      <c r="R76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="R77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>7</v>
+      </c>
+      <c r="R78" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4">

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -346,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,13 +384,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,32 +876,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -902,15 +909,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="P40" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="U40" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="E41" s="3" t="s">
         <v>45</v>
       </c>
@@ -921,7 +931,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -929,7 +939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:21">
       <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
@@ -944,17 +954,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:21">
       <c r="P45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>7</v>
       </c>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W132"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -843,6 +843,9 @@
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
       <c r="P27" t="s">
         <v>98</v>
       </c>
@@ -851,10 +854,16 @@
       <c r="A28" t="s">
         <v>10</v>
       </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>44</v>
@@ -1026,7 +1035,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="B65" s="3" t="s">
         <v>46</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" s="1"/>
       <c r="B68" s="3" t="s">
         <v>48</v>
@@ -1065,12 +1074,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="R69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -1078,13 +1087,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="B72" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="3"/>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -1096,19 +1105,22 @@
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="B75" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="R76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
         <v>7</v>
       </c>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,20 +874,32 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>12</v>
       </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>13</v>
       </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -906,10 +906,16 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="7740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Round 2" sheetId="4" r:id="rId1"/>
+    <sheet name="Round 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -322,12 +323,63 @@
   </si>
   <si>
     <t>native functions or PUTs that handle with string operation or complex data structure. In addition, further research is needed to be able to apply this proposal</t>
+  </si>
+  <si>
+    <t>The reviewers' comments for your paper are enclosed with this e-mail. Please</t>
+  </si>
+  <si>
+    <t>revise the paper carefully addressing the comments of the reviewers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are requested to submit a revised version in camera-ready format as well as a separate letter containing the changes you've made to address the reviewers' comments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The camera-ready version of your paper must be uploaded within two weeks' time. Please find the instructions on how to prepare and upload the camera-ready version of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">your paper from the journal website http://www.jcsce.vnu.edu.vn/index.php/jcsce/about/submissions. </t>
+  </si>
+  <si>
+    <t>You will be asked to check the final version of your paper before it appears in the journal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors updated the previous version following the reviewers comments. However the updates are minor, mainly in writing corrections and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insignificant experiment results additions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related work should compare with Pex from Microsoft Research. In comparison some related work, e.g. Symbolic PathFinder, the authors pointed out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">that these approaches have difficulties with loop, pointers, arrays,.. but the experimental results in the paper did not show authors' approach </t>
+  </si>
+  <si>
+    <t>solver the limitations of the other approaches.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-540-79124-9_10</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/research/project/pex-and-moles-isolation-and-white-box-unit-testing-for-net/</t>
+  </si>
+  <si>
+    <t>statistical in 4.1 seems not a right word, I think you just do a search for all paths of a CFG.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors should make more comparisions and more significant experimental results that show their approach and tool are better than may others </t>
+  </si>
+  <si>
+    <t>state-of-the-art approaches and tools in the literature, not only small advancement of [9].</t>
+  </si>
+  <si>
+    <t>I accept the revised paper. It can be published.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -524,6 +576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -558,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,11 +787,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1396,8 +1621,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1408,8 +1633,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>I accept the revised paper. It can be published.</t>
+  </si>
+  <si>
+    <t>Tôi cho rằng từ statistical tôi dùng là chính xác</t>
+  </si>
+  <si>
+    <t>Bằng cách KO phải thực thi chương trình, tôi vẫn sinh ra CFG từ chương trình, rồi tôi duyệt theo CFG để tìm ra all paths of the given programs, thì tôi nghĩ đó là Perform statistical analysis</t>
   </si>
 </sst>
 </file>
@@ -788,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,53 +907,61 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="M38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="M39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>7</v>
       </c>
     </row>
@@ -962,7 +976,7 @@
   <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="7740"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -380,12 +380,18 @@
   </si>
   <si>
     <t>Bằng cách KO phải thực thi chương trình, tôi vẫn sinh ra CFG từ chương trình, rồi tôi duyệt theo CFG để tìm ra all paths of the given programs, thì tôi nghĩ đó là Perform statistical analysis</t>
+  </si>
+  <si>
+    <t>Tôi gọi đây là performing static analysis bởi vì bằng cách KO phải thực thi chương trình, tôi vẫn sinh ra CFG từ chương trình, rồi tôi duyệt theo CFG để tìm ra all paths of the given programs</t>
+  </si>
+  <si>
+    <t>So với các phương pháp sử dụng static analysis như là Symbolic PathFinder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -487,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -582,7 +588,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -617,7 +622,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,17 +911,29 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="33" spans="1:19">
+      <c r="L33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -925,22 +941,45 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:19">
       <c r="M39" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="40" spans="1:19">
+      <c r="A40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -972,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1636,7 +1675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1648,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="7740"/>
+    <workbookView xWindow="360" yWindow="225" windowWidth="18195" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Round 2" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -376,22 +376,16 @@
     <t>I accept the revised paper. It can be published.</t>
   </si>
   <si>
-    <t>Tôi cho rằng từ statistical tôi dùng là chính xác</t>
-  </si>
-  <si>
-    <t>Bằng cách KO phải thực thi chương trình, tôi vẫn sinh ra CFG từ chương trình, rồi tôi duyệt theo CFG để tìm ra all paths of the given programs, thì tôi nghĩ đó là Perform statistical analysis</t>
-  </si>
-  <si>
-    <t>Tôi gọi đây là performing static analysis bởi vì bằng cách KO phải thực thi chương trình, tôi vẫn sinh ra CFG từ chương trình, rồi tôi duyệt theo CFG để tìm ra all paths of the given programs</t>
-  </si>
-  <si>
     <t>So với các phương pháp sử dụng static analysis như là Symbolic PathFinder</t>
+  </si>
+  <si>
+    <t>We call this performing static analysis because by not having to execute the program, we still generate CFG from the program, then traverse this CFG to find out all test paths of the given program.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -588,6 +582,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -622,6 +617,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -797,11 +793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,7 +909,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="L33" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -937,18 +933,13 @@
       <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="M38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="M39" t="s">
-        <v>120</v>
+      <c r="L38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1011,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1675,7 +1666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,7 +1678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -379,14 +379,35 @@
     <t>So với các phương pháp sử dụng static analysis như là Symbolic PathFinder</t>
   </si>
   <si>
-    <t>We call this performing static analysis because by not having to execute the program, we still generate CFG from the program, then traverse this CFG to find out all test paths of the given program.</t>
+    <t xml:space="preserve">So sánh với các phương pháp constraint-based test data generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We call it static analysis because by not having to execute the program, we still generate control flow graph (CFG) from the given program, and then traverse this CFG to find out all test paths. </t>
+  </si>
+  <si>
+    <t>Trong phần này chúng tôi sẽ so sánh kết quả chạy với cách approach constraint-based test data generation.</t>
+  </si>
+  <si>
+    <t>Xét đến chương trình sau</t>
+  </si>
+  <si>
+    <t>Chúng tôi so sánh với Symbolic PathFinder là state-of-the-art của cách tiếp cận constraint-based test data generation.</t>
+  </si>
+  <si>
+    <t>Với chương trình này thì do Symbolic PathFinder đang sử dụng các constraint solver để giải các điều kiện tìm kiếm, thế nên là với condition thì ko thể giải được.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên do cách tiếp cận của chúng tôi là sử dụng </t>
+  </si>
+  <si>
+    <t>Cần fill cái gì vào đây?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +420,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -450,6 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,7 +938,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:21">
       <c r="L33" s="5" t="s">
         <v>119</v>
       </c>
@@ -919,17 +950,17 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -937,9 +968,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:21">
       <c r="A40" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -959,38 +990,78 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="U40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="47" spans="1:21">
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="O48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="O49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="O50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="O52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="O54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>7</v>
       </c>

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -496,6 +496,149 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7384676" y="11138647"/>
+          <a:ext cx="4191000" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>int foo(double x, double y) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	int ret = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	if ((x + y + Math.sin(x + y)) == 10) {             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>		ret = 1; // branch 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>	return ret;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>59487</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>131556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12068736" y="11037794"/>
+          <a:ext cx="3723810" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -827,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,6 +1212,7 @@
   </sheetData>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
+++ b/CFT4CUnitSrc/src/report/VNUJournalreview.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="129">
   <si>
     <t>Dear Dinh Thi,</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Cần fill cái gì vào đây?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also we show </t>
   </si>
 </sst>
 </file>
@@ -970,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,6 +1148,11 @@
     <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="O45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:21">
